--- a/Pitcher_stats.xlsx
+++ b/Pitcher_stats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilhelmer/Documents/Statistical Computing 2016/MLBDATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilhelmer/Documents/Statistical Computing 2016/MLBDATA/MLB-Postseason-Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B39DCA-2CE1-CA45-8471-EC183DED9662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rangers" sheetId="5" r:id="rId1"/>
@@ -31,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rangers!$A$1:$Q$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">redsox!$A$1:$Q$10</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -119,39 +120,39 @@
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gio Gonzalez*\gonzagi01</t>
@@ -182,39 +183,39 @@
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pedro Baez\baezpe01</t>
@@ -248,39 +249,39 @@
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Madison Bumgarner*\bumgama01</t>
@@ -311,39 +312,39 @@
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tony Barnette\barneto01</t>
@@ -374,27 +375,27 @@
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jake Arrieta\arrieja01</t>
@@ -425,27 +426,27 @@
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Matt Barnes\barnema01</t>
@@ -476,39 +477,39 @@
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Joe Biagini\biagijo01</t>
@@ -536,22 +537,22 @@
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,16 +562,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -593,9 +607,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -605,6 +621,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -872,4393 +891,4393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>200.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>848</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>760</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>83</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>185</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>30</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
         <v>24</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>23</v>
       </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="3">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3">
         <v>77</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>198.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>33</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>855</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>758</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>110</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>205</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>45</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <v>18</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>8</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>76</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>119</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>23</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>509</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>453</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>68</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>116</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>17</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
         <v>28</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>4</v>
       </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3">
         <v>46</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>36</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>116.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>19</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>472</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>437</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>53</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>103</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>16</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>19</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3">
         <v>28</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>60.1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>53</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>246</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>223</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>16</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>54</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>7</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>3</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
         <v>16</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>61.2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>58</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>243</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>224</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>18</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>44</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>4</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>14</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>51.2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>39</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>217</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>204</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>19</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>55</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>10</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>10</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>29</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>53</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>66</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>221</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>190</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>22</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>36</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>7</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>26</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>70.099999999999994</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>73</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>285</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>258</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>19</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>63</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>9</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>23</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>215</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>860</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>788</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>82</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>170</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>39</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>7</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>57</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>190</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>35</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>811</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>721</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>96</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>179</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>36</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>4</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>20</v>
       </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
         <v>70</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>174</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>725</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>694</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>97</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>187</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>37</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>36</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>3</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
         <v>20</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>29</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>146.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>599</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>558</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>64</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>134</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>36</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>21</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>34</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>68</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>67</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>264</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>232</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>23</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>41</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>8</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>8</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>27</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>43.1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>53</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>189</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>166</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>40</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>7</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>7</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
         <v>22</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>52.1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>53</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>233</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>207</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>21</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>53</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>13</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>23</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>70.2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>62</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>269</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>256</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>14</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>54</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>10</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>66.2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>275</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>243</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>26</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>56</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>9</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>8</v>
       </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="N10" s="1">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
         <v>28</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>230</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>35</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>951</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>879</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>106</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>227</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>40</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>6</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>30</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>50</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>223</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>33</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>890</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>840</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>85</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>193</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>36</v>
       </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
         <v>23</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>32</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>156.19999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>24</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>656</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>587</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>74</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>138</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>17</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
         <v>12</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>8</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>4</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>57</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>31</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>139.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>37</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>588</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>520</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>80</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>130</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>22</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
         <v>21</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>55</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>66.2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>62</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>287</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>250</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>32</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>62</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>11</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>6</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>7</v>
       </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
         <v>31</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>53</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>57</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>220</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>184</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>22</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>28</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>30</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>55.1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>54</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>238</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>206</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>21</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>47</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
         <v>23</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>49.2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>53</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>208</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>192</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>23</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>47</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>9</v>
       </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
         <v>14</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>41</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>47</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>50</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>184</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>170</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>18</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>34</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>8</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>11</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>204</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>855</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>792</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>104</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>209</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>44</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>21</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>13</v>
       </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="1">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1">
         <v>54</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>33</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>195</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>32</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>796</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>726</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>72</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>168</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>31</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>22</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>7</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
         <v>60</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>192</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>790</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>719</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>69</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>161</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>31</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>15</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>12</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>63</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>32</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>176</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>29</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>723</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>651</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>73</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>132</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>26</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>23</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>12</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>65</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>67.2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>295</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>266</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>28</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>69</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>16</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>7</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>19</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>36.200000000000003</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>54</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>157</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>145</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>17</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>39</v>
       </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>8</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>41.1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>39</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>173</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>160</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>22</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>43</v>
       </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>2</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
         <v>10</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>39</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>42</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>46</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>170</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>148</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>17</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>28</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>4</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>8</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>19</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>74</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>72</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>288</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>267</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>23</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>55</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>12</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>9</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>6</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
         <v>14</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>197.1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>31</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>795</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>710</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>72</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>138</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>27</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>16</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>23</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>76</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>202.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>32</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>796</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>730</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>57</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>154</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>25</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <v>21</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>28</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>13</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>52</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>190</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>31</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>745</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>686</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>53</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>142</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>28</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>15</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>4</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>44</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>37</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>188.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>29</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>748</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>670</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>74</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>146</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>25</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>23</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>15</v>
       </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3">
         <v>53</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>65.2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>284</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>244</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>22</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>49</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>7</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>11</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
         <v>35</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>52.2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>68</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>225</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>201</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>24</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>47</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>11</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
         <v>4</v>
       </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
         <v>23</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>51</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>54</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>187</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>20</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>42</v>
       </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>8</v>
       </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="3">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>8</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>47.1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>54</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>187</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>166</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>16</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>27</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>15</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>29</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>61</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>77</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>252</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>226</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>24</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>45</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>16</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
         <v>8</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
         <v>24</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>31</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>228.1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>34</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>902</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>830</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>77</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>165</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>37</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>31</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>8</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>56</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>210</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>34</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>855</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>758</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>72</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>173</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>17</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>16</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>7</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>73</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>177.1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>765</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>684</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>98</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>179</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>34</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>4</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>59</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>147.19999999999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>24</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>598</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>546</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>59</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>119</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>26</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>15</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>44</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>58</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>67</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>224</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>211</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>41</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>9</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>11</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>35</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>37</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>152</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>137</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>18</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>37</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>11</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>14</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>40</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>64</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>182</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>153</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>22</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>38</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>4</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>49.2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>47</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>203</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>182</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>26</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>43</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>11</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
         <v>15</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>67</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>73</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>263</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>228</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>19</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>51</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>8</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
         <v>31</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:AC1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>175.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>716</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>655</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>72</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>150</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>21</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>9</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>4</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>50</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>28</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>149</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>544</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>526</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>31</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>97</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>18</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <v>8</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
         <v>11</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>32</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>136.1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>590</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>526</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>133</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>29</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>21</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>8</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>52</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>419</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>384</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>46</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>96</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>23</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>9</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>30</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>74</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>73</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>295</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>267</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>27</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>52</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>8</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
         <v>11</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>22</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>80</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>75</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>315</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>284</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>23</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>55</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>10</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
         <v>7</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>9</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
         <v>26</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>48</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>61</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>211</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>180</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>27</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>45</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>11</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>2</v>
       </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
         <v>24</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>33</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>50.2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>64</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>220</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>199</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>23</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>56</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>2</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>4</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>15</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>68.2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>71</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>251</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>234</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>14</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>35</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>8</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
         <v>11</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="19">
+      <c r="A1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" ht="19">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>26</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>226.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>34</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>912</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>841</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>79</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>179</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>37</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>26</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>6</v>
       </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="3">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3">
         <v>54</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="19">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>219.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>32</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>881</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>818</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>71</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>195</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>36</v>
       </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>4</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>7</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>45</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="19">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>203.1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>829</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>764</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>88</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>190</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>37</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>24</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>6</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>54</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>118.2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>31</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>520</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>476</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>76</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>134</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>36</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>18</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>36</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" ht="19">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>35</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>58</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>62</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>241</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>213</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>23</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>50</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>9</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
         <v>8</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>4</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
         <v>19</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" ht="19">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>55</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>61</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>214</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>205</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>13</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>44</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
         <v>9</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="19">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>26.2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>68</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>118</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>24</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>15</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" ht="19">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>36.1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>59</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>160</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>136</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>20</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>31</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>7</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>4</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>19</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" ht="19">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>27</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>61</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>72</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>250</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>226</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>21</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>50</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>7</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>19</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>